--- a/Data/EC/NIT-9004528095.xlsx
+++ b/Data/EC/NIT-9004528095.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41845057-02AC-439E-9EFD-B5C305600D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A9DC9D-7EB8-42A6-B93C-001CD6C541D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EDA821DE-F12D-4304-B79F-197EAC142BBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CDCF034-0168-43BB-8541-99E4045E934C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,25 +71,25 @@
     <t>YOHELIS TATIANA ZABALETA GARCIA</t>
   </si>
   <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1048941394</t>
+  </si>
+  <si>
+    <t>WENDY MARIA ATENCIO JULIO</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1048941394</t>
-  </si>
-  <si>
-    <t>WENDY MARIA ATENCIO JULIO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -188,22 +188,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -403,23 +403,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,10 +447,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B0FA11-5AAE-ADB4-893D-8390F600E58C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037CBF9D-AE06-1975-7CCD-2B86F97ED4FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F37009-A12C-4CC7-88CF-9293DE7A8F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C50308-0DC1-40EB-9877-951A447FBA94}">
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1032,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16562</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1046,19 +1046,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1092,10 +1092,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1104,7 +1104,7 @@
         <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1127,7 +1127,7 @@
         <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1138,16 +1138,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>16562</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1161,13 +1161,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1184,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1207,16 +1207,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>16562</v>
       </c>
       <c r="G24" s="18">
         <v>828116</v>
@@ -1230,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="F25" s="24">
-        <v>33125</v>
+        <v>16562</v>
       </c>
       <c r="G25" s="24">
         <v>828116</v>
